--- a/TestCases/EcomTestCase1.xlsx
+++ b/TestCases/EcomTestCase1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betty\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay\Desktop\artify1\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C888807-0BEE-472B-A838-CACF26CF87AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA751BD-D34B-4770-982F-1F1CD4050A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Store" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Sl No</t>
   </si>
@@ -286,11 +286,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,72 +704,72 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -795,72 +795,72 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -886,48 +886,48 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -953,46 +953,46 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -1018,59 +1018,59 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -1097,24 +1097,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
@@ -1131,11 +1118,24 @@
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H5">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yet to Start">
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,23 +1239,31 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{508460ED-BAA0-4798-9B0E-D813448AAC23}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases/EcomTestCase1.xlsx
+++ b/TestCases/EcomTestCase1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betty\Desktop\BettApp\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay\Desktop\artify1\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D711E0A9-DA6B-49F2-B5DB-C8234DFCC26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25C9CF-B34A-4867-A7FB-76E890B40050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Version 1.0" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -253,14 +253,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,27 +542,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46CF0A-594F-41E0-9C09-BBA1F178334E}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="24.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="40.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,30 +594,15 @@
         <v>13</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -626,73 +611,73 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
@@ -701,65 +686,65 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -768,207 +753,194 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
@@ -981,7 +953,20 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H17:H20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H7 H11:H12 H16:H17 H21:H22 H26:H1048576" xr:uid="{508460ED-BAA0-4798-9B0E-D813448AAC23}">

--- a/TestCases/EcomTestCase1.xlsx
+++ b/TestCases/EcomTestCase1.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay\Desktop\artify1\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betty\Desktop\BettApp\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25C9CF-B34A-4867-A7FB-76E890B40050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A0C13-142C-4147-BEA7-E17B2BA88DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 1.0" sheetId="2" r:id="rId1"/>
+    <sheet name="Version 1.2" sheetId="4" r:id="rId1"/>
+    <sheet name="Version 1.0" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>Sl No</t>
   </si>
@@ -257,10 +259,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +543,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48590A36-AFE3-4BF5-A14F-89F69B66E9D1}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26:H1048576 H11:H12 H16:H17 H21:H22 H1:H4 H6:H7" xr:uid="{FAD604A9-493C-45A3-9272-BAA939178747}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46CF0A-594F-41E0-9C09-BBA1F178334E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -624,10 +1072,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -641,8 +1089,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="E5" t="s">
         <v>19</v>
       </c>
@@ -668,16 +1116,16 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
@@ -686,45 +1134,45 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -735,16 +1183,16 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -753,48 +1201,48 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -805,60 +1253,60 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>5</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -869,66 +1317,66 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>6</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -940,6 +1388,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G22:G25"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C12:C15"/>
@@ -955,18 +1414,7 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H17:H20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H7 H11:H12 H16:H17 H21:H22 H26:H1048576" xr:uid="{508460ED-BAA0-4798-9B0E-D813448AAC23}">
@@ -975,4 +1423,16 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1BFCC4-A261-44D1-A86F-C4F7A15F11E4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>